--- a/merged_data/scmp.xlsx
+++ b/merged_data/scmp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3626" uniqueCount="2182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3626" uniqueCount="2181">
   <si>
     <t>headline</t>
   </si>
@@ -6551,9 +6551,6 @@
   </si>
   <si>
     <t>SCMP</t>
-  </si>
-  <si>
-    <t>South China Morning Post</t>
   </si>
   <si>
     <t>auto</t>
@@ -6973,7 +6970,7 @@
         <v>2178</v>
       </c>
       <c r="F2" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6993,7 +6990,7 @@
         <v>2178</v>
       </c>
       <c r="F3" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7013,7 +7010,7 @@
         <v>2178</v>
       </c>
       <c r="F4" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7033,7 +7030,7 @@
         <v>2178</v>
       </c>
       <c r="F5" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7053,7 +7050,7 @@
         <v>2178</v>
       </c>
       <c r="F6" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7073,7 +7070,7 @@
         <v>2178</v>
       </c>
       <c r="F7" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7093,7 +7090,7 @@
         <v>2178</v>
       </c>
       <c r="F8" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7113,7 +7110,7 @@
         <v>2178</v>
       </c>
       <c r="F9" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7133,7 +7130,7 @@
         <v>2178</v>
       </c>
       <c r="F10" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7153,7 +7150,7 @@
         <v>2178</v>
       </c>
       <c r="F11" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7173,7 +7170,7 @@
         <v>2178</v>
       </c>
       <c r="F12" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7193,7 +7190,7 @@
         <v>2178</v>
       </c>
       <c r="F13" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7213,7 +7210,7 @@
         <v>2178</v>
       </c>
       <c r="F14" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -7233,7 +7230,7 @@
         <v>2178</v>
       </c>
       <c r="F15" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7253,7 +7250,7 @@
         <v>2178</v>
       </c>
       <c r="F16" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7273,7 +7270,7 @@
         <v>2178</v>
       </c>
       <c r="F17" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7293,7 +7290,7 @@
         <v>2178</v>
       </c>
       <c r="F18" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7310,10 +7307,10 @@
         <v>1471</v>
       </c>
       <c r="E19" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F19" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7333,7 +7330,7 @@
         <v>2178</v>
       </c>
       <c r="F20" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7353,7 +7350,7 @@
         <v>2178</v>
       </c>
       <c r="F21" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7370,10 +7367,10 @@
         <v>1474</v>
       </c>
       <c r="E22" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F22" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7393,7 +7390,7 @@
         <v>2178</v>
       </c>
       <c r="F23" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7413,7 +7410,7 @@
         <v>2178</v>
       </c>
       <c r="F24" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7433,7 +7430,7 @@
         <v>2178</v>
       </c>
       <c r="F25" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7453,7 +7450,7 @@
         <v>2178</v>
       </c>
       <c r="F26" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7473,7 +7470,7 @@
         <v>2178</v>
       </c>
       <c r="F27" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7493,7 +7490,7 @@
         <v>2178</v>
       </c>
       <c r="F28" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7513,7 +7510,7 @@
         <v>2178</v>
       </c>
       <c r="F29" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7533,7 +7530,7 @@
         <v>2178</v>
       </c>
       <c r="F30" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7553,7 +7550,7 @@
         <v>2178</v>
       </c>
       <c r="F31" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7573,7 +7570,7 @@
         <v>2178</v>
       </c>
       <c r="F32" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7593,7 +7590,7 @@
         <v>2178</v>
       </c>
       <c r="F33" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7613,7 +7610,7 @@
         <v>2178</v>
       </c>
       <c r="F34" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7630,10 +7627,10 @@
         <v>1487</v>
       </c>
       <c r="E35" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F35" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7653,7 +7650,7 @@
         <v>2178</v>
       </c>
       <c r="F36" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7673,7 +7670,7 @@
         <v>2178</v>
       </c>
       <c r="F37" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7693,7 +7690,7 @@
         <v>2178</v>
       </c>
       <c r="F38" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7713,7 +7710,7 @@
         <v>2178</v>
       </c>
       <c r="F39" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7730,10 +7727,10 @@
         <v>1492</v>
       </c>
       <c r="E40" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F40" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7753,7 +7750,7 @@
         <v>2178</v>
       </c>
       <c r="F41" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7773,7 +7770,7 @@
         <v>2178</v>
       </c>
       <c r="F42" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7793,7 +7790,7 @@
         <v>2178</v>
       </c>
       <c r="F43" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7813,7 +7810,7 @@
         <v>2178</v>
       </c>
       <c r="F44" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7833,7 +7830,7 @@
         <v>2178</v>
       </c>
       <c r="F45" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7853,7 +7850,7 @@
         <v>2178</v>
       </c>
       <c r="F46" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7873,7 +7870,7 @@
         <v>2178</v>
       </c>
       <c r="F47" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7893,7 +7890,7 @@
         <v>2178</v>
       </c>
       <c r="F48" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7913,7 +7910,7 @@
         <v>2178</v>
       </c>
       <c r="F49" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7933,7 +7930,7 @@
         <v>2178</v>
       </c>
       <c r="F50" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7953,7 +7950,7 @@
         <v>2178</v>
       </c>
       <c r="F51" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7970,10 +7967,10 @@
         <v>1504</v>
       </c>
       <c r="E52" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F52" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7993,7 +7990,7 @@
         <v>2178</v>
       </c>
       <c r="F53" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8010,10 +8007,10 @@
         <v>1506</v>
       </c>
       <c r="E54" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F54" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8033,7 +8030,7 @@
         <v>2178</v>
       </c>
       <c r="F55" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8053,7 +8050,7 @@
         <v>2178</v>
       </c>
       <c r="F56" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8073,7 +8070,7 @@
         <v>2178</v>
       </c>
       <c r="F57" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8090,10 +8087,10 @@
         <v>1510</v>
       </c>
       <c r="E58" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F58" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8113,7 +8110,7 @@
         <v>2178</v>
       </c>
       <c r="F59" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8130,10 +8127,10 @@
         <v>1512</v>
       </c>
       <c r="E60" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F60" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8150,10 +8147,10 @@
         <v>1513</v>
       </c>
       <c r="E61" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F61" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8170,10 +8167,10 @@
         <v>1514</v>
       </c>
       <c r="E62" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F62" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8193,7 +8190,7 @@
         <v>2178</v>
       </c>
       <c r="F63" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8213,7 +8210,7 @@
         <v>2178</v>
       </c>
       <c r="F64" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8230,10 +8227,10 @@
         <v>1517</v>
       </c>
       <c r="E65" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F65" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8250,10 +8247,10 @@
         <v>1518</v>
       </c>
       <c r="E66" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F66" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8270,10 +8267,10 @@
         <v>1519</v>
       </c>
       <c r="E67" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F67" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8293,7 +8290,7 @@
         <v>2178</v>
       </c>
       <c r="F68" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8310,10 +8307,10 @@
         <v>1521</v>
       </c>
       <c r="E69" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F69" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8333,7 +8330,7 @@
         <v>2178</v>
       </c>
       <c r="F70" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8350,10 +8347,10 @@
         <v>1523</v>
       </c>
       <c r="E71" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F71" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8373,7 +8370,7 @@
         <v>2178</v>
       </c>
       <c r="F72" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8390,10 +8387,10 @@
         <v>1525</v>
       </c>
       <c r="E73" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F73" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8410,10 +8407,10 @@
         <v>1526</v>
       </c>
       <c r="E74" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F74" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8430,10 +8427,10 @@
         <v>1527</v>
       </c>
       <c r="E75" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F75" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8450,10 +8447,10 @@
         <v>1528</v>
       </c>
       <c r="E76" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F76" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8470,10 +8467,10 @@
         <v>1529</v>
       </c>
       <c r="E77" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F77" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8493,7 +8490,7 @@
         <v>2178</v>
       </c>
       <c r="F78" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8510,10 +8507,10 @@
         <v>1531</v>
       </c>
       <c r="E79" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F79" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8530,10 +8527,10 @@
         <v>1532</v>
       </c>
       <c r="E80" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F80" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8553,7 +8550,7 @@
         <v>2178</v>
       </c>
       <c r="F81" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8573,7 +8570,7 @@
         <v>2178</v>
       </c>
       <c r="F82" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8593,7 +8590,7 @@
         <v>2178</v>
       </c>
       <c r="F83" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8613,7 +8610,7 @@
         <v>2178</v>
       </c>
       <c r="F84" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8633,7 +8630,7 @@
         <v>2178</v>
       </c>
       <c r="F85" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8653,7 +8650,7 @@
         <v>2178</v>
       </c>
       <c r="F86" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8673,7 +8670,7 @@
         <v>2178</v>
       </c>
       <c r="F87" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8690,10 +8687,10 @@
         <v>1540</v>
       </c>
       <c r="E88" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F88" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8713,7 +8710,7 @@
         <v>2178</v>
       </c>
       <c r="F89" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8733,7 +8730,7 @@
         <v>2178</v>
       </c>
       <c r="F90" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8750,10 +8747,10 @@
         <v>1543</v>
       </c>
       <c r="E91" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F91" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8770,10 +8767,10 @@
         <v>1544</v>
       </c>
       <c r="E92" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F92" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8793,7 +8790,7 @@
         <v>2178</v>
       </c>
       <c r="F93" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8810,10 +8807,10 @@
         <v>1546</v>
       </c>
       <c r="E94" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F94" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8833,7 +8830,7 @@
         <v>2178</v>
       </c>
       <c r="F95" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8853,7 +8850,7 @@
         <v>2178</v>
       </c>
       <c r="F96" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8873,7 +8870,7 @@
         <v>2178</v>
       </c>
       <c r="F97" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8893,7 +8890,7 @@
         <v>2178</v>
       </c>
       <c r="F98" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8913,7 +8910,7 @@
         <v>2178</v>
       </c>
       <c r="F99" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -8930,10 +8927,10 @@
         <v>1552</v>
       </c>
       <c r="E100" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F100" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -8953,7 +8950,7 @@
         <v>2178</v>
       </c>
       <c r="F101" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -8973,7 +8970,7 @@
         <v>2178</v>
       </c>
       <c r="F102" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -8993,7 +8990,7 @@
         <v>2178</v>
       </c>
       <c r="F103" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -9010,10 +9007,10 @@
         <v>1556</v>
       </c>
       <c r="E104" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F104" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -9030,10 +9027,10 @@
         <v>1557</v>
       </c>
       <c r="E105" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F105" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -9053,7 +9050,7 @@
         <v>2178</v>
       </c>
       <c r="F106" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -9073,7 +9070,7 @@
         <v>2178</v>
       </c>
       <c r="F107" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -9093,7 +9090,7 @@
         <v>2178</v>
       </c>
       <c r="F108" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -9110,10 +9107,10 @@
         <v>1561</v>
       </c>
       <c r="E109" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F109" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -9133,7 +9130,7 @@
         <v>2178</v>
       </c>
       <c r="F110" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -9153,7 +9150,7 @@
         <v>2178</v>
       </c>
       <c r="F111" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -9173,7 +9170,7 @@
         <v>2178</v>
       </c>
       <c r="F112" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -9193,7 +9190,7 @@
         <v>2178</v>
       </c>
       <c r="F113" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -9213,7 +9210,7 @@
         <v>2178</v>
       </c>
       <c r="F114" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -9233,7 +9230,7 @@
         <v>2178</v>
       </c>
       <c r="F115" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -9250,10 +9247,10 @@
         <v>1568</v>
       </c>
       <c r="E116" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F116" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -9270,10 +9267,10 @@
         <v>1569</v>
       </c>
       <c r="E117" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F117" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -9290,10 +9287,10 @@
         <v>1570</v>
       </c>
       <c r="E118" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F118" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -9313,7 +9310,7 @@
         <v>2178</v>
       </c>
       <c r="F119" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -9333,7 +9330,7 @@
         <v>2178</v>
       </c>
       <c r="F120" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -9350,10 +9347,10 @@
         <v>1573</v>
       </c>
       <c r="E121" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F121" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -9373,7 +9370,7 @@
         <v>2178</v>
       </c>
       <c r="F122" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -9390,10 +9387,10 @@
         <v>1575</v>
       </c>
       <c r="E123" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F123" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -9413,7 +9410,7 @@
         <v>2178</v>
       </c>
       <c r="F124" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -9433,7 +9430,7 @@
         <v>2178</v>
       </c>
       <c r="F125" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -9453,7 +9450,7 @@
         <v>2178</v>
       </c>
       <c r="F126" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -9473,7 +9470,7 @@
         <v>2178</v>
       </c>
       <c r="F127" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -9493,7 +9490,7 @@
         <v>2178</v>
       </c>
       <c r="F128" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -9513,7 +9510,7 @@
         <v>2178</v>
       </c>
       <c r="F129" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -9530,10 +9527,10 @@
         <v>1582</v>
       </c>
       <c r="E130" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F130" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -9553,7 +9550,7 @@
         <v>2178</v>
       </c>
       <c r="F131" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -9573,7 +9570,7 @@
         <v>2178</v>
       </c>
       <c r="F132" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -9593,7 +9590,7 @@
         <v>2178</v>
       </c>
       <c r="F133" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -9613,7 +9610,7 @@
         <v>2178</v>
       </c>
       <c r="F134" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -9630,10 +9627,10 @@
         <v>1587</v>
       </c>
       <c r="E135" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F135" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -9653,7 +9650,7 @@
         <v>2178</v>
       </c>
       <c r="F136" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -9673,7 +9670,7 @@
         <v>2178</v>
       </c>
       <c r="F137" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -9693,7 +9690,7 @@
         <v>2178</v>
       </c>
       <c r="F138" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -9713,7 +9710,7 @@
         <v>2178</v>
       </c>
       <c r="F139" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -9733,7 +9730,7 @@
         <v>2178</v>
       </c>
       <c r="F140" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -9750,10 +9747,10 @@
         <v>1593</v>
       </c>
       <c r="E141" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F141" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -9773,7 +9770,7 @@
         <v>2178</v>
       </c>
       <c r="F142" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -9793,7 +9790,7 @@
         <v>2178</v>
       </c>
       <c r="F143" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -9813,7 +9810,7 @@
         <v>2178</v>
       </c>
       <c r="F144" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -9833,7 +9830,7 @@
         <v>2178</v>
       </c>
       <c r="F145" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -9853,7 +9850,7 @@
         <v>2178</v>
       </c>
       <c r="F146" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -9873,7 +9870,7 @@
         <v>2178</v>
       </c>
       <c r="F147" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -9893,7 +9890,7 @@
         <v>2178</v>
       </c>
       <c r="F148" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -9913,7 +9910,7 @@
         <v>2178</v>
       </c>
       <c r="F149" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -9933,7 +9930,7 @@
         <v>2178</v>
       </c>
       <c r="F150" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -9950,10 +9947,10 @@
         <v>1603</v>
       </c>
       <c r="E151" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F151" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -9973,7 +9970,7 @@
         <v>2178</v>
       </c>
       <c r="F152" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -9993,7 +9990,7 @@
         <v>2178</v>
       </c>
       <c r="F153" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -10013,7 +10010,7 @@
         <v>2178</v>
       </c>
       <c r="F154" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -10033,7 +10030,7 @@
         <v>2178</v>
       </c>
       <c r="F155" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -10053,7 +10050,7 @@
         <v>2178</v>
       </c>
       <c r="F156" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -10073,7 +10070,7 @@
         <v>2178</v>
       </c>
       <c r="F157" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -10093,7 +10090,7 @@
         <v>2178</v>
       </c>
       <c r="F158" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -10113,7 +10110,7 @@
         <v>2178</v>
       </c>
       <c r="F159" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -10133,7 +10130,7 @@
         <v>2178</v>
       </c>
       <c r="F160" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -10153,7 +10150,7 @@
         <v>2178</v>
       </c>
       <c r="F161" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -10170,10 +10167,10 @@
         <v>1614</v>
       </c>
       <c r="E162" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F162" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -10193,7 +10190,7 @@
         <v>2178</v>
       </c>
       <c r="F163" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -10213,7 +10210,7 @@
         <v>2178</v>
       </c>
       <c r="F164" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -10230,10 +10227,10 @@
         <v>1617</v>
       </c>
       <c r="E165" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F165" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -10253,7 +10250,7 @@
         <v>2178</v>
       </c>
       <c r="F166" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -10273,7 +10270,7 @@
         <v>2178</v>
       </c>
       <c r="F167" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -10290,10 +10287,10 @@
         <v>1620</v>
       </c>
       <c r="E168" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F168" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -10313,7 +10310,7 @@
         <v>2178</v>
       </c>
       <c r="F169" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -10333,7 +10330,7 @@
         <v>2178</v>
       </c>
       <c r="F170" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -10350,10 +10347,10 @@
         <v>1623</v>
       </c>
       <c r="E171" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F171" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -10373,7 +10370,7 @@
         <v>2178</v>
       </c>
       <c r="F172" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -10390,10 +10387,10 @@
         <v>1625</v>
       </c>
       <c r="E173" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F173" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -10413,7 +10410,7 @@
         <v>2178</v>
       </c>
       <c r="F174" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -10430,10 +10427,10 @@
         <v>1627</v>
       </c>
       <c r="E175" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F175" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -10450,10 +10447,10 @@
         <v>1628</v>
       </c>
       <c r="E176" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F176" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -10473,7 +10470,7 @@
         <v>2178</v>
       </c>
       <c r="F177" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -10493,7 +10490,7 @@
         <v>2178</v>
       </c>
       <c r="F178" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -10513,7 +10510,7 @@
         <v>2178</v>
       </c>
       <c r="F179" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -10533,7 +10530,7 @@
         <v>2178</v>
       </c>
       <c r="F180" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -10553,7 +10550,7 @@
         <v>2178</v>
       </c>
       <c r="F181" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -10573,7 +10570,7 @@
         <v>2178</v>
       </c>
       <c r="F182" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -10593,7 +10590,7 @@
         <v>2178</v>
       </c>
       <c r="F183" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -10613,7 +10610,7 @@
         <v>2178</v>
       </c>
       <c r="F184" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -10633,7 +10630,7 @@
         <v>2178</v>
       </c>
       <c r="F185" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -10653,7 +10650,7 @@
         <v>2178</v>
       </c>
       <c r="F186" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -10673,7 +10670,7 @@
         <v>2178</v>
       </c>
       <c r="F187" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -10693,7 +10690,7 @@
         <v>2178</v>
       </c>
       <c r="F188" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -10710,10 +10707,10 @@
         <v>1641</v>
       </c>
       <c r="E189" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F189" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -10733,7 +10730,7 @@
         <v>2178</v>
       </c>
       <c r="F190" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -10753,7 +10750,7 @@
         <v>2178</v>
       </c>
       <c r="F191" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -10773,7 +10770,7 @@
         <v>2178</v>
       </c>
       <c r="F192" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -10793,7 +10790,7 @@
         <v>2178</v>
       </c>
       <c r="F193" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -10813,7 +10810,7 @@
         <v>2178</v>
       </c>
       <c r="F194" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -10833,7 +10830,7 @@
         <v>2178</v>
       </c>
       <c r="F195" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -10853,7 +10850,7 @@
         <v>2178</v>
       </c>
       <c r="F196" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -10870,10 +10867,10 @@
         <v>1649</v>
       </c>
       <c r="E197" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F197" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -10890,10 +10887,10 @@
         <v>1650</v>
       </c>
       <c r="E198" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F198" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -10913,7 +10910,7 @@
         <v>2178</v>
       </c>
       <c r="F199" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -10933,7 +10930,7 @@
         <v>2178</v>
       </c>
       <c r="F200" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -10953,7 +10950,7 @@
         <v>2178</v>
       </c>
       <c r="F201" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -10973,7 +10970,7 @@
         <v>2178</v>
       </c>
       <c r="F202" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -10993,7 +10990,7 @@
         <v>2178</v>
       </c>
       <c r="F203" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -11013,7 +11010,7 @@
         <v>2178</v>
       </c>
       <c r="F204" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -11033,7 +11030,7 @@
         <v>2178</v>
       </c>
       <c r="F205" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -11050,10 +11047,10 @@
         <v>1658</v>
       </c>
       <c r="E206" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F206" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -11073,7 +11070,7 @@
         <v>2178</v>
       </c>
       <c r="F207" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -11090,10 +11087,10 @@
         <v>1660</v>
       </c>
       <c r="E208" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F208" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -11113,7 +11110,7 @@
         <v>2178</v>
       </c>
       <c r="F209" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -11133,7 +11130,7 @@
         <v>2178</v>
       </c>
       <c r="F210" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -11150,10 +11147,10 @@
         <v>1663</v>
       </c>
       <c r="E211" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F211" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -11173,7 +11170,7 @@
         <v>2178</v>
       </c>
       <c r="F212" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -11193,7 +11190,7 @@
         <v>2178</v>
       </c>
       <c r="F213" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -11213,7 +11210,7 @@
         <v>2178</v>
       </c>
       <c r="F214" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -11233,7 +11230,7 @@
         <v>2178</v>
       </c>
       <c r="F215" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -11253,7 +11250,7 @@
         <v>2178</v>
       </c>
       <c r="F216" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -11270,10 +11267,10 @@
         <v>1669</v>
       </c>
       <c r="E217" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F217" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -11293,7 +11290,7 @@
         <v>2178</v>
       </c>
       <c r="F218" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -11313,7 +11310,7 @@
         <v>2178</v>
       </c>
       <c r="F219" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -11333,7 +11330,7 @@
         <v>2178</v>
       </c>
       <c r="F220" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -11350,10 +11347,10 @@
         <v>1673</v>
       </c>
       <c r="E221" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F221" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -11373,7 +11370,7 @@
         <v>2178</v>
       </c>
       <c r="F222" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -11393,7 +11390,7 @@
         <v>2178</v>
       </c>
       <c r="F223" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -11413,7 +11410,7 @@
         <v>2178</v>
       </c>
       <c r="F224" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -11433,7 +11430,7 @@
         <v>2178</v>
       </c>
       <c r="F225" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -11453,7 +11450,7 @@
         <v>2178</v>
       </c>
       <c r="F226" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -11473,7 +11470,7 @@
         <v>2178</v>
       </c>
       <c r="F227" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -11490,10 +11487,10 @@
         <v>1680</v>
       </c>
       <c r="E228" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F228" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -11513,7 +11510,7 @@
         <v>2178</v>
       </c>
       <c r="F229" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -11533,7 +11530,7 @@
         <v>2178</v>
       </c>
       <c r="F230" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -11553,7 +11550,7 @@
         <v>2178</v>
       </c>
       <c r="F231" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -11573,7 +11570,7 @@
         <v>2178</v>
       </c>
       <c r="F232" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -11593,7 +11590,7 @@
         <v>2178</v>
       </c>
       <c r="F233" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -11613,7 +11610,7 @@
         <v>2178</v>
       </c>
       <c r="F234" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -11633,7 +11630,7 @@
         <v>2178</v>
       </c>
       <c r="F235" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -11653,7 +11650,7 @@
         <v>2178</v>
       </c>
       <c r="F236" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -11673,7 +11670,7 @@
         <v>2178</v>
       </c>
       <c r="F237" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -11690,10 +11687,10 @@
         <v>1690</v>
       </c>
       <c r="E238" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F238" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -11713,7 +11710,7 @@
         <v>2178</v>
       </c>
       <c r="F239" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -11730,10 +11727,10 @@
         <v>1692</v>
       </c>
       <c r="E240" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F240" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -11753,7 +11750,7 @@
         <v>2178</v>
       </c>
       <c r="F241" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -11773,7 +11770,7 @@
         <v>2178</v>
       </c>
       <c r="F242" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -11790,10 +11787,10 @@
         <v>1695</v>
       </c>
       <c r="E243" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F243" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -11813,7 +11810,7 @@
         <v>2178</v>
       </c>
       <c r="F244" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -11830,10 +11827,10 @@
         <v>1697</v>
       </c>
       <c r="E245" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F245" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -11853,7 +11850,7 @@
         <v>2178</v>
       </c>
       <c r="F246" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -11873,7 +11870,7 @@
         <v>2178</v>
       </c>
       <c r="F247" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -11893,7 +11890,7 @@
         <v>2178</v>
       </c>
       <c r="F248" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -11910,10 +11907,10 @@
         <v>1701</v>
       </c>
       <c r="E249" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F249" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -11933,7 +11930,7 @@
         <v>2178</v>
       </c>
       <c r="F250" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -11950,10 +11947,10 @@
         <v>1703</v>
       </c>
       <c r="E251" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F251" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -11973,7 +11970,7 @@
         <v>2178</v>
       </c>
       <c r="F252" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -11990,10 +11987,10 @@
         <v>1705</v>
       </c>
       <c r="E253" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F253" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -12013,7 +12010,7 @@
         <v>2178</v>
       </c>
       <c r="F254" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -12033,7 +12030,7 @@
         <v>2178</v>
       </c>
       <c r="F255" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -12053,7 +12050,7 @@
         <v>2178</v>
       </c>
       <c r="F256" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -12073,7 +12070,7 @@
         <v>2178</v>
       </c>
       <c r="F257" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -12093,7 +12090,7 @@
         <v>2178</v>
       </c>
       <c r="F258" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -12113,7 +12110,7 @@
         <v>2178</v>
       </c>
       <c r="F259" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -12133,7 +12130,7 @@
         <v>2178</v>
       </c>
       <c r="F260" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -12153,7 +12150,7 @@
         <v>2178</v>
       </c>
       <c r="F261" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -12173,7 +12170,7 @@
         <v>2178</v>
       </c>
       <c r="F262" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -12190,10 +12187,10 @@
         <v>1715</v>
       </c>
       <c r="E263" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F263" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -12213,7 +12210,7 @@
         <v>2178</v>
       </c>
       <c r="F264" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -12233,7 +12230,7 @@
         <v>2178</v>
       </c>
       <c r="F265" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -12250,10 +12247,10 @@
         <v>1718</v>
       </c>
       <c r="E266" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F266" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -12273,7 +12270,7 @@
         <v>2178</v>
       </c>
       <c r="F267" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -12293,7 +12290,7 @@
         <v>2178</v>
       </c>
       <c r="F268" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -12310,10 +12307,10 @@
         <v>1721</v>
       </c>
       <c r="E269" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F269" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -12333,7 +12330,7 @@
         <v>2178</v>
       </c>
       <c r="F270" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -12353,7 +12350,7 @@
         <v>2178</v>
       </c>
       <c r="F271" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -12373,7 +12370,7 @@
         <v>2178</v>
       </c>
       <c r="F272" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -12393,7 +12390,7 @@
         <v>2178</v>
       </c>
       <c r="F273" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -12413,7 +12410,7 @@
         <v>2178</v>
       </c>
       <c r="F274" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -12430,10 +12427,10 @@
         <v>1727</v>
       </c>
       <c r="E275" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F275" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -12453,7 +12450,7 @@
         <v>2178</v>
       </c>
       <c r="F276" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -12473,7 +12470,7 @@
         <v>2178</v>
       </c>
       <c r="F277" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -12493,7 +12490,7 @@
         <v>2178</v>
       </c>
       <c r="F278" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -12510,10 +12507,10 @@
         <v>1731</v>
       </c>
       <c r="E279" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F279" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -12533,7 +12530,7 @@
         <v>2178</v>
       </c>
       <c r="F280" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -12553,7 +12550,7 @@
         <v>2178</v>
       </c>
       <c r="F281" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -12570,10 +12567,10 @@
         <v>1734</v>
       </c>
       <c r="E282" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F282" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -12593,7 +12590,7 @@
         <v>2178</v>
       </c>
       <c r="F283" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -12613,7 +12610,7 @@
         <v>2178</v>
       </c>
       <c r="F284" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -12633,7 +12630,7 @@
         <v>2178</v>
       </c>
       <c r="F285" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -12653,7 +12650,7 @@
         <v>2178</v>
       </c>
       <c r="F286" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -12673,7 +12670,7 @@
         <v>2178</v>
       </c>
       <c r="F287" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -12693,7 +12690,7 @@
         <v>2178</v>
       </c>
       <c r="F288" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -12713,7 +12710,7 @@
         <v>2178</v>
       </c>
       <c r="F289" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -12733,7 +12730,7 @@
         <v>2178</v>
       </c>
       <c r="F290" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -12753,7 +12750,7 @@
         <v>2178</v>
       </c>
       <c r="F291" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -12773,7 +12770,7 @@
         <v>2178</v>
       </c>
       <c r="F292" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -12793,7 +12790,7 @@
         <v>2178</v>
       </c>
       <c r="F293" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -12813,7 +12810,7 @@
         <v>2178</v>
       </c>
       <c r="F294" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -12833,7 +12830,7 @@
         <v>2178</v>
       </c>
       <c r="F295" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -12853,7 +12850,7 @@
         <v>2178</v>
       </c>
       <c r="F296" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -12873,7 +12870,7 @@
         <v>2178</v>
       </c>
       <c r="F297" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -12893,7 +12890,7 @@
         <v>2178</v>
       </c>
       <c r="F298" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -12913,7 +12910,7 @@
         <v>2178</v>
       </c>
       <c r="F299" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -12930,10 +12927,10 @@
         <v>1752</v>
       </c>
       <c r="E300" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F300" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -12953,7 +12950,7 @@
         <v>2178</v>
       </c>
       <c r="F301" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -12973,7 +12970,7 @@
         <v>2178</v>
       </c>
       <c r="F302" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -12993,7 +12990,7 @@
         <v>2178</v>
       </c>
       <c r="F303" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -13013,7 +13010,7 @@
         <v>2178</v>
       </c>
       <c r="F304" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -13033,7 +13030,7 @@
         <v>2178</v>
       </c>
       <c r="F305" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -13053,7 +13050,7 @@
         <v>2178</v>
       </c>
       <c r="F306" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -13073,7 +13070,7 @@
         <v>2178</v>
       </c>
       <c r="F307" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -13093,7 +13090,7 @@
         <v>2178</v>
       </c>
       <c r="F308" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -13113,7 +13110,7 @@
         <v>2178</v>
       </c>
       <c r="F309" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -13133,7 +13130,7 @@
         <v>2178</v>
       </c>
       <c r="F310" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -13153,7 +13150,7 @@
         <v>2178</v>
       </c>
       <c r="F311" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -13173,7 +13170,7 @@
         <v>2178</v>
       </c>
       <c r="F312" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -13193,7 +13190,7 @@
         <v>2178</v>
       </c>
       <c r="F313" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -13210,10 +13207,10 @@
         <v>1766</v>
       </c>
       <c r="E314" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F314" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -13233,7 +13230,7 @@
         <v>2178</v>
       </c>
       <c r="F315" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -13253,7 +13250,7 @@
         <v>2178</v>
       </c>
       <c r="F316" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -13273,7 +13270,7 @@
         <v>2178</v>
       </c>
       <c r="F317" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -13293,7 +13290,7 @@
         <v>2178</v>
       </c>
       <c r="F318" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -13313,7 +13310,7 @@
         <v>2178</v>
       </c>
       <c r="F319" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -13333,7 +13330,7 @@
         <v>2178</v>
       </c>
       <c r="F320" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -13353,7 +13350,7 @@
         <v>2178</v>
       </c>
       <c r="F321" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -13373,7 +13370,7 @@
         <v>2178</v>
       </c>
       <c r="F322" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -13393,7 +13390,7 @@
         <v>2178</v>
       </c>
       <c r="F323" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -13413,7 +13410,7 @@
         <v>2178</v>
       </c>
       <c r="F324" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -13433,7 +13430,7 @@
         <v>2178</v>
       </c>
       <c r="F325" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -13453,7 +13450,7 @@
         <v>2178</v>
       </c>
       <c r="F326" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -13473,7 +13470,7 @@
         <v>2178</v>
       </c>
       <c r="F327" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -13490,10 +13487,10 @@
         <v>1780</v>
       </c>
       <c r="E328" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F328" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -13513,7 +13510,7 @@
         <v>2178</v>
       </c>
       <c r="F329" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -13530,10 +13527,10 @@
         <v>1782</v>
       </c>
       <c r="E330" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F330" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -13550,10 +13547,10 @@
         <v>1783</v>
       </c>
       <c r="E331" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F331" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -13573,7 +13570,7 @@
         <v>2178</v>
       </c>
       <c r="F332" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -13593,7 +13590,7 @@
         <v>2178</v>
       </c>
       <c r="F333" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -13613,7 +13610,7 @@
         <v>2178</v>
       </c>
       <c r="F334" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -13633,7 +13630,7 @@
         <v>2178</v>
       </c>
       <c r="F335" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -13650,10 +13647,10 @@
         <v>1788</v>
       </c>
       <c r="E336" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F336" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -13673,7 +13670,7 @@
         <v>2178</v>
       </c>
       <c r="F337" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -13693,7 +13690,7 @@
         <v>2178</v>
       </c>
       <c r="F338" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -13713,7 +13710,7 @@
         <v>2178</v>
       </c>
       <c r="F339" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -13733,7 +13730,7 @@
         <v>2178</v>
       </c>
       <c r="F340" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -13753,7 +13750,7 @@
         <v>2178</v>
       </c>
       <c r="F341" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -13773,7 +13770,7 @@
         <v>2178</v>
       </c>
       <c r="F342" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -13793,7 +13790,7 @@
         <v>2178</v>
       </c>
       <c r="F343" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -13813,7 +13810,7 @@
         <v>2178</v>
       </c>
       <c r="F344" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -13830,10 +13827,10 @@
         <v>1797</v>
       </c>
       <c r="E345" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F345" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -13853,7 +13850,7 @@
         <v>2178</v>
       </c>
       <c r="F346" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -13873,7 +13870,7 @@
         <v>2178</v>
       </c>
       <c r="F347" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -13893,7 +13890,7 @@
         <v>2178</v>
       </c>
       <c r="F348" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -13913,7 +13910,7 @@
         <v>2178</v>
       </c>
       <c r="F349" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -13933,7 +13930,7 @@
         <v>2178</v>
       </c>
       <c r="F350" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -13950,10 +13947,10 @@
         <v>1803</v>
       </c>
       <c r="E351" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F351" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -13973,7 +13970,7 @@
         <v>2178</v>
       </c>
       <c r="F352" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -13993,7 +13990,7 @@
         <v>2178</v>
       </c>
       <c r="F353" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -14013,7 +14010,7 @@
         <v>2178</v>
       </c>
       <c r="F354" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -14033,7 +14030,7 @@
         <v>2178</v>
       </c>
       <c r="F355" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -14053,7 +14050,7 @@
         <v>2178</v>
       </c>
       <c r="F356" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -14073,7 +14070,7 @@
         <v>2178</v>
       </c>
       <c r="F357" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -14093,7 +14090,7 @@
         <v>2178</v>
       </c>
       <c r="F358" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -14113,7 +14110,7 @@
         <v>2178</v>
       </c>
       <c r="F359" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -14133,7 +14130,7 @@
         <v>2178</v>
       </c>
       <c r="F360" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -14153,7 +14150,7 @@
         <v>2178</v>
       </c>
       <c r="F361" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -14173,7 +14170,7 @@
         <v>2178</v>
       </c>
       <c r="F362" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -14193,7 +14190,7 @@
         <v>2178</v>
       </c>
       <c r="F363" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -14213,7 +14210,7 @@
         <v>2178</v>
       </c>
       <c r="F364" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -14233,7 +14230,7 @@
         <v>2178</v>
       </c>
       <c r="F365" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -14253,7 +14250,7 @@
         <v>2178</v>
       </c>
       <c r="F366" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -14273,7 +14270,7 @@
         <v>2178</v>
       </c>
       <c r="F367" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -14293,7 +14290,7 @@
         <v>2178</v>
       </c>
       <c r="F368" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -14313,7 +14310,7 @@
         <v>2178</v>
       </c>
       <c r="F369" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -14333,7 +14330,7 @@
         <v>2178</v>
       </c>
       <c r="F370" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -14353,7 +14350,7 @@
         <v>2178</v>
       </c>
       <c r="F371" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -14370,10 +14367,10 @@
         <v>1824</v>
       </c>
       <c r="E372" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F372" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -14393,7 +14390,7 @@
         <v>2178</v>
       </c>
       <c r="F373" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -14413,7 +14410,7 @@
         <v>2178</v>
       </c>
       <c r="F374" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -14433,7 +14430,7 @@
         <v>2178</v>
       </c>
       <c r="F375" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -14450,10 +14447,10 @@
         <v>1828</v>
       </c>
       <c r="E376" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F376" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -14473,7 +14470,7 @@
         <v>2178</v>
       </c>
       <c r="F377" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -14493,7 +14490,7 @@
         <v>2178</v>
       </c>
       <c r="F378" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -14513,7 +14510,7 @@
         <v>2178</v>
       </c>
       <c r="F379" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -14533,7 +14530,7 @@
         <v>2178</v>
       </c>
       <c r="F380" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -14553,7 +14550,7 @@
         <v>2178</v>
       </c>
       <c r="F381" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -14573,7 +14570,7 @@
         <v>2178</v>
       </c>
       <c r="F382" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -14593,7 +14590,7 @@
         <v>2178</v>
       </c>
       <c r="F383" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -14613,7 +14610,7 @@
         <v>2178</v>
       </c>
       <c r="F384" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -14633,7 +14630,7 @@
         <v>2178</v>
       </c>
       <c r="F385" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -14653,7 +14650,7 @@
         <v>2178</v>
       </c>
       <c r="F386" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -14673,7 +14670,7 @@
         <v>2178</v>
       </c>
       <c r="F387" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -14690,10 +14687,10 @@
         <v>1840</v>
       </c>
       <c r="E388" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F388" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -14713,7 +14710,7 @@
         <v>2178</v>
       </c>
       <c r="F389" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -14733,7 +14730,7 @@
         <v>2178</v>
       </c>
       <c r="F390" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -14750,10 +14747,10 @@
         <v>1843</v>
       </c>
       <c r="E391" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F391" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -14773,7 +14770,7 @@
         <v>2178</v>
       </c>
       <c r="F392" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -14793,7 +14790,7 @@
         <v>2178</v>
       </c>
       <c r="F393" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -14813,7 +14810,7 @@
         <v>2178</v>
       </c>
       <c r="F394" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -14830,10 +14827,10 @@
         <v>1847</v>
       </c>
       <c r="E395" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F395" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -14850,10 +14847,10 @@
         <v>1848</v>
       </c>
       <c r="E396" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F396" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -14870,10 +14867,10 @@
         <v>1849</v>
       </c>
       <c r="E397" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F397" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -14890,10 +14887,10 @@
         <v>1850</v>
       </c>
       <c r="E398" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F398" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -14910,10 +14907,10 @@
         <v>1851</v>
       </c>
       <c r="E399" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F399" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -14933,7 +14930,7 @@
         <v>2178</v>
       </c>
       <c r="F400" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -14953,7 +14950,7 @@
         <v>2178</v>
       </c>
       <c r="F401" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -14970,10 +14967,10 @@
         <v>1854</v>
       </c>
       <c r="E402" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F402" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -14993,7 +14990,7 @@
         <v>2178</v>
       </c>
       <c r="F403" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -15013,7 +15010,7 @@
         <v>2178</v>
       </c>
       <c r="F404" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -15030,10 +15027,10 @@
         <v>1857</v>
       </c>
       <c r="E405" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F405" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -15050,10 +15047,10 @@
         <v>1858</v>
       </c>
       <c r="E406" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F406" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -15073,7 +15070,7 @@
         <v>2178</v>
       </c>
       <c r="F407" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -15090,10 +15087,10 @@
         <v>1860</v>
       </c>
       <c r="E408" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F408" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -15113,7 +15110,7 @@
         <v>2178</v>
       </c>
       <c r="F409" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -15133,7 +15130,7 @@
         <v>2178</v>
       </c>
       <c r="F410" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -15153,7 +15150,7 @@
         <v>2178</v>
       </c>
       <c r="F411" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -15170,10 +15167,10 @@
         <v>1864</v>
       </c>
       <c r="E412" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F412" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -15193,7 +15190,7 @@
         <v>2178</v>
       </c>
       <c r="F413" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -15213,7 +15210,7 @@
         <v>2178</v>
       </c>
       <c r="F414" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -15230,10 +15227,10 @@
         <v>1867</v>
       </c>
       <c r="E415" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F415" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -15250,10 +15247,10 @@
         <v>1868</v>
       </c>
       <c r="E416" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F416" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -15273,7 +15270,7 @@
         <v>2178</v>
       </c>
       <c r="F417" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -15293,7 +15290,7 @@
         <v>2178</v>
       </c>
       <c r="F418" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -15313,7 +15310,7 @@
         <v>2178</v>
       </c>
       <c r="F419" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -15333,7 +15330,7 @@
         <v>2178</v>
       </c>
       <c r="F420" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -15353,7 +15350,7 @@
         <v>2178</v>
       </c>
       <c r="F421" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -15373,7 +15370,7 @@
         <v>2178</v>
       </c>
       <c r="F422" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -15393,7 +15390,7 @@
         <v>2178</v>
       </c>
       <c r="F423" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -15410,10 +15407,10 @@
         <v>1876</v>
       </c>
       <c r="E424" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F424" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -15433,7 +15430,7 @@
         <v>2178</v>
       </c>
       <c r="F425" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -15453,7 +15450,7 @@
         <v>2178</v>
       </c>
       <c r="F426" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -15473,7 +15470,7 @@
         <v>2178</v>
       </c>
       <c r="F427" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -15493,7 +15490,7 @@
         <v>2178</v>
       </c>
       <c r="F428" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -15513,7 +15510,7 @@
         <v>2178</v>
       </c>
       <c r="F429" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -15533,7 +15530,7 @@
         <v>2178</v>
       </c>
       <c r="F430" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -15550,10 +15547,10 @@
         <v>1883</v>
       </c>
       <c r="E431" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F431" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -15573,7 +15570,7 @@
         <v>2178</v>
       </c>
       <c r="F432" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -15593,7 +15590,7 @@
         <v>2178</v>
       </c>
       <c r="F433" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -15613,7 +15610,7 @@
         <v>2178</v>
       </c>
       <c r="F434" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -15633,7 +15630,7 @@
         <v>2178</v>
       </c>
       <c r="F435" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -15653,7 +15650,7 @@
         <v>2178</v>
       </c>
       <c r="F436" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -15673,7 +15670,7 @@
         <v>2178</v>
       </c>
       <c r="F437" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -15693,7 +15690,7 @@
         <v>2178</v>
       </c>
       <c r="F438" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -15713,7 +15710,7 @@
         <v>2178</v>
       </c>
       <c r="F439" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -15733,7 +15730,7 @@
         <v>2178</v>
       </c>
       <c r="F440" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -15753,7 +15750,7 @@
         <v>2178</v>
       </c>
       <c r="F441" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -15773,7 +15770,7 @@
         <v>2178</v>
       </c>
       <c r="F442" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -15793,7 +15790,7 @@
         <v>2178</v>
       </c>
       <c r="F443" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -15813,7 +15810,7 @@
         <v>2178</v>
       </c>
       <c r="F444" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -15833,7 +15830,7 @@
         <v>2178</v>
       </c>
       <c r="F445" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -15853,7 +15850,7 @@
         <v>2178</v>
       </c>
       <c r="F446" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -15873,7 +15870,7 @@
         <v>2178</v>
       </c>
       <c r="F447" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -15893,7 +15890,7 @@
         <v>2178</v>
       </c>
       <c r="F448" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -15913,7 +15910,7 @@
         <v>2178</v>
       </c>
       <c r="F449" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -15933,7 +15930,7 @@
         <v>2178</v>
       </c>
       <c r="F450" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -15953,7 +15950,7 @@
         <v>2178</v>
       </c>
       <c r="F451" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -15973,7 +15970,7 @@
         <v>2178</v>
       </c>
       <c r="F452" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -15993,7 +15990,7 @@
         <v>2178</v>
       </c>
       <c r="F453" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -16013,7 +16010,7 @@
         <v>2178</v>
       </c>
       <c r="F454" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -16033,7 +16030,7 @@
         <v>2178</v>
       </c>
       <c r="F455" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -16053,7 +16050,7 @@
         <v>2178</v>
       </c>
       <c r="F456" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -16073,7 +16070,7 @@
         <v>2178</v>
       </c>
       <c r="F457" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -16093,7 +16090,7 @@
         <v>2178</v>
       </c>
       <c r="F458" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -16113,7 +16110,7 @@
         <v>2178</v>
       </c>
       <c r="F459" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -16133,7 +16130,7 @@
         <v>2178</v>
       </c>
       <c r="F460" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -16153,7 +16150,7 @@
         <v>2178</v>
       </c>
       <c r="F461" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -16173,7 +16170,7 @@
         <v>2178</v>
       </c>
       <c r="F462" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -16193,7 +16190,7 @@
         <v>2178</v>
       </c>
       <c r="F463" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -16213,7 +16210,7 @@
         <v>2178</v>
       </c>
       <c r="F464" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -16233,7 +16230,7 @@
         <v>2178</v>
       </c>
       <c r="F465" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -16253,7 +16250,7 @@
         <v>2178</v>
       </c>
       <c r="F466" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -16273,7 +16270,7 @@
         <v>2178</v>
       </c>
       <c r="F467" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -16293,7 +16290,7 @@
         <v>2178</v>
       </c>
       <c r="F468" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="469" spans="1:6">
@@ -16313,7 +16310,7 @@
         <v>2178</v>
       </c>
       <c r="F469" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -16333,7 +16330,7 @@
         <v>2178</v>
       </c>
       <c r="F470" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -16353,7 +16350,7 @@
         <v>2178</v>
       </c>
       <c r="F471" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -16373,7 +16370,7 @@
         <v>2178</v>
       </c>
       <c r="F472" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="473" spans="1:6">
@@ -16393,7 +16390,7 @@
         <v>2178</v>
       </c>
       <c r="F473" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -16413,7 +16410,7 @@
         <v>2178</v>
       </c>
       <c r="F474" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="475" spans="1:6">
@@ -16433,7 +16430,7 @@
         <v>2178</v>
       </c>
       <c r="F475" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="476" spans="1:6">
@@ -16453,7 +16450,7 @@
         <v>2178</v>
       </c>
       <c r="F476" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="477" spans="1:6">
@@ -16473,7 +16470,7 @@
         <v>2178</v>
       </c>
       <c r="F477" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -16493,7 +16490,7 @@
         <v>2178</v>
       </c>
       <c r="F478" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -16513,7 +16510,7 @@
         <v>2178</v>
       </c>
       <c r="F479" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -16533,7 +16530,7 @@
         <v>2178</v>
       </c>
       <c r="F480" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -16553,7 +16550,7 @@
         <v>2178</v>
       </c>
       <c r="F481" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -16573,7 +16570,7 @@
         <v>2178</v>
       </c>
       <c r="F482" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -16593,7 +16590,7 @@
         <v>2178</v>
       </c>
       <c r="F483" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -16613,7 +16610,7 @@
         <v>2178</v>
       </c>
       <c r="F484" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -16633,7 +16630,7 @@
         <v>2178</v>
       </c>
       <c r="F485" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -16653,7 +16650,7 @@
         <v>2178</v>
       </c>
       <c r="F486" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -16673,7 +16670,7 @@
         <v>2178</v>
       </c>
       <c r="F487" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -16693,7 +16690,7 @@
         <v>2178</v>
       </c>
       <c r="F488" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -16713,7 +16710,7 @@
         <v>2178</v>
       </c>
       <c r="F489" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -16733,7 +16730,7 @@
         <v>2178</v>
       </c>
       <c r="F490" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -16753,7 +16750,7 @@
         <v>2178</v>
       </c>
       <c r="F491" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -16773,7 +16770,7 @@
         <v>2178</v>
       </c>
       <c r="F492" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -16793,7 +16790,7 @@
         <v>2178</v>
       </c>
       <c r="F493" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -16813,7 +16810,7 @@
         <v>2178</v>
       </c>
       <c r="F494" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -16833,7 +16830,7 @@
         <v>2178</v>
       </c>
       <c r="F495" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -16853,7 +16850,7 @@
         <v>2178</v>
       </c>
       <c r="F496" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -16873,7 +16870,7 @@
         <v>2178</v>
       </c>
       <c r="F497" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -16893,7 +16890,7 @@
         <v>2178</v>
       </c>
       <c r="F498" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="499" spans="1:6">
@@ -16913,7 +16910,7 @@
         <v>2178</v>
       </c>
       <c r="F499" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="500" spans="1:6">
@@ -16933,7 +16930,7 @@
         <v>2178</v>
       </c>
       <c r="F500" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="501" spans="1:6">
@@ -16953,7 +16950,7 @@
         <v>2178</v>
       </c>
       <c r="F501" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="502" spans="1:6">
@@ -16973,7 +16970,7 @@
         <v>2178</v>
       </c>
       <c r="F502" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="503" spans="1:6">
@@ -16993,7 +16990,7 @@
         <v>2178</v>
       </c>
       <c r="F503" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="504" spans="1:6">
@@ -17013,7 +17010,7 @@
         <v>2178</v>
       </c>
       <c r="F504" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="505" spans="1:6">
@@ -17033,7 +17030,7 @@
         <v>2178</v>
       </c>
       <c r="F505" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -17053,7 +17050,7 @@
         <v>2178</v>
       </c>
       <c r="F506" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="507" spans="1:6">
@@ -17073,7 +17070,7 @@
         <v>2178</v>
       </c>
       <c r="F507" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="508" spans="1:6">
@@ -17093,7 +17090,7 @@
         <v>2178</v>
       </c>
       <c r="F508" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="509" spans="1:6">
@@ -17113,7 +17110,7 @@
         <v>2178</v>
       </c>
       <c r="F509" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="510" spans="1:6">
@@ -17133,7 +17130,7 @@
         <v>2178</v>
       </c>
       <c r="F510" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="511" spans="1:6">
@@ -17153,7 +17150,7 @@
         <v>2178</v>
       </c>
       <c r="F511" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="512" spans="1:6">
@@ -17173,7 +17170,7 @@
         <v>2178</v>
       </c>
       <c r="F512" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="513" spans="1:6">
@@ -17193,7 +17190,7 @@
         <v>2178</v>
       </c>
       <c r="F513" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="514" spans="1:6">
@@ -17213,7 +17210,7 @@
         <v>2178</v>
       </c>
       <c r="F514" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="515" spans="1:6">
@@ -17233,7 +17230,7 @@
         <v>2178</v>
       </c>
       <c r="F515" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="516" spans="1:6">
@@ -17253,7 +17250,7 @@
         <v>2178</v>
       </c>
       <c r="F516" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -17273,7 +17270,7 @@
         <v>2178</v>
       </c>
       <c r="F517" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="518" spans="1:6">
@@ -17293,7 +17290,7 @@
         <v>2178</v>
       </c>
       <c r="F518" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="519" spans="1:6">
@@ -17313,7 +17310,7 @@
         <v>2178</v>
       </c>
       <c r="F519" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -17333,7 +17330,7 @@
         <v>2178</v>
       </c>
       <c r="F520" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -17353,7 +17350,7 @@
         <v>2178</v>
       </c>
       <c r="F521" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -17373,7 +17370,7 @@
         <v>2178</v>
       </c>
       <c r="F522" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="523" spans="1:6">
@@ -17393,7 +17390,7 @@
         <v>2178</v>
       </c>
       <c r="F523" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -17413,7 +17410,7 @@
         <v>2178</v>
       </c>
       <c r="F524" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="525" spans="1:6">
@@ -17433,7 +17430,7 @@
         <v>2178</v>
       </c>
       <c r="F525" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -17453,7 +17450,7 @@
         <v>2178</v>
       </c>
       <c r="F526" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -17473,7 +17470,7 @@
         <v>2178</v>
       </c>
       <c r="F527" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="528" spans="1:6">
@@ -17493,7 +17490,7 @@
         <v>2178</v>
       </c>
       <c r="F528" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="529" spans="1:6">
@@ -17513,7 +17510,7 @@
         <v>2178</v>
       </c>
       <c r="F529" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="530" spans="1:6">
@@ -17533,7 +17530,7 @@
         <v>2178</v>
       </c>
       <c r="F530" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="531" spans="1:6">
@@ -17553,7 +17550,7 @@
         <v>2178</v>
       </c>
       <c r="F531" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="532" spans="1:6">
@@ -17573,7 +17570,7 @@
         <v>2178</v>
       </c>
       <c r="F532" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -17593,7 +17590,7 @@
         <v>2178</v>
       </c>
       <c r="F533" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="534" spans="1:6">
@@ -17613,7 +17610,7 @@
         <v>2178</v>
       </c>
       <c r="F534" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="535" spans="1:6">
@@ -17633,7 +17630,7 @@
         <v>2178</v>
       </c>
       <c r="F535" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="536" spans="1:6">
@@ -17653,7 +17650,7 @@
         <v>2178</v>
       </c>
       <c r="F536" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="537" spans="1:6">
@@ -17673,7 +17670,7 @@
         <v>2178</v>
       </c>
       <c r="F537" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -17693,7 +17690,7 @@
         <v>2178</v>
       </c>
       <c r="F538" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="539" spans="1:6">
@@ -17713,7 +17710,7 @@
         <v>2178</v>
       </c>
       <c r="F539" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="540" spans="1:6">
@@ -17733,7 +17730,7 @@
         <v>2178</v>
       </c>
       <c r="F540" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="541" spans="1:6">
@@ -17753,7 +17750,7 @@
         <v>2178</v>
       </c>
       <c r="F541" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="542" spans="1:6">
@@ -17773,7 +17770,7 @@
         <v>2178</v>
       </c>
       <c r="F542" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="543" spans="1:6">
@@ -17793,7 +17790,7 @@
         <v>2178</v>
       </c>
       <c r="F543" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="544" spans="1:6">
@@ -17813,7 +17810,7 @@
         <v>2178</v>
       </c>
       <c r="F544" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -17833,7 +17830,7 @@
         <v>2178</v>
       </c>
       <c r="F545" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="546" spans="1:6">
@@ -17853,7 +17850,7 @@
         <v>2178</v>
       </c>
       <c r="F546" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -17873,7 +17870,7 @@
         <v>2178</v>
       </c>
       <c r="F547" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -17893,7 +17890,7 @@
         <v>2178</v>
       </c>
       <c r="F548" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -17913,7 +17910,7 @@
         <v>2178</v>
       </c>
       <c r="F549" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="550" spans="1:6">
@@ -17933,7 +17930,7 @@
         <v>2178</v>
       </c>
       <c r="F550" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -17953,7 +17950,7 @@
         <v>2178</v>
       </c>
       <c r="F551" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -17973,7 +17970,7 @@
         <v>2178</v>
       </c>
       <c r="F552" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -17993,7 +17990,7 @@
         <v>2178</v>
       </c>
       <c r="F553" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -18013,7 +18010,7 @@
         <v>2178</v>
       </c>
       <c r="F554" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -18033,7 +18030,7 @@
         <v>2178</v>
       </c>
       <c r="F555" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -18053,7 +18050,7 @@
         <v>2178</v>
       </c>
       <c r="F556" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -18073,7 +18070,7 @@
         <v>2178</v>
       </c>
       <c r="F557" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -18093,7 +18090,7 @@
         <v>2178</v>
       </c>
       <c r="F558" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -18113,7 +18110,7 @@
         <v>2178</v>
       </c>
       <c r="F559" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -18133,7 +18130,7 @@
         <v>2178</v>
       </c>
       <c r="F560" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -18153,7 +18150,7 @@
         <v>2178</v>
       </c>
       <c r="F561" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -18173,7 +18170,7 @@
         <v>2178</v>
       </c>
       <c r="F562" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -18193,7 +18190,7 @@
         <v>2178</v>
       </c>
       <c r="F563" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="564" spans="1:6">
@@ -18213,7 +18210,7 @@
         <v>2178</v>
       </c>
       <c r="F564" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -18233,7 +18230,7 @@
         <v>2178</v>
       </c>
       <c r="F565" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -18253,7 +18250,7 @@
         <v>2178</v>
       </c>
       <c r="F566" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="567" spans="1:6">
@@ -18273,7 +18270,7 @@
         <v>2178</v>
       </c>
       <c r="F567" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="568" spans="1:6">
@@ -18293,7 +18290,7 @@
         <v>2178</v>
       </c>
       <c r="F568" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="569" spans="1:6">
@@ -18313,7 +18310,7 @@
         <v>2178</v>
       </c>
       <c r="F569" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="570" spans="1:6">
@@ -18333,7 +18330,7 @@
         <v>2178</v>
       </c>
       <c r="F570" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="571" spans="1:6">
@@ -18353,7 +18350,7 @@
         <v>2178</v>
       </c>
       <c r="F571" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="572" spans="1:6">
@@ -18373,7 +18370,7 @@
         <v>2178</v>
       </c>
       <c r="F572" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="573" spans="1:6">
@@ -18393,7 +18390,7 @@
         <v>2178</v>
       </c>
       <c r="F573" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="574" spans="1:6">
@@ -18413,7 +18410,7 @@
         <v>2178</v>
       </c>
       <c r="F574" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -18433,7 +18430,7 @@
         <v>2178</v>
       </c>
       <c r="F575" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -18453,7 +18450,7 @@
         <v>2178</v>
       </c>
       <c r="F576" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="577" spans="1:6">
@@ -18473,7 +18470,7 @@
         <v>2178</v>
       </c>
       <c r="F577" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="578" spans="1:6">
@@ -18493,7 +18490,7 @@
         <v>2178</v>
       </c>
       <c r="F578" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -18513,7 +18510,7 @@
         <v>2178</v>
       </c>
       <c r="F579" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -18533,7 +18530,7 @@
         <v>2178</v>
       </c>
       <c r="F580" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="581" spans="1:6">
@@ -18553,7 +18550,7 @@
         <v>2178</v>
       </c>
       <c r="F581" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -18573,7 +18570,7 @@
         <v>2178</v>
       </c>
       <c r="F582" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -18593,7 +18590,7 @@
         <v>2178</v>
       </c>
       <c r="F583" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -18613,7 +18610,7 @@
         <v>2178</v>
       </c>
       <c r="F584" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -18633,7 +18630,7 @@
         <v>2178</v>
       </c>
       <c r="F585" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -18653,7 +18650,7 @@
         <v>2178</v>
       </c>
       <c r="F586" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -18673,7 +18670,7 @@
         <v>2178</v>
       </c>
       <c r="F587" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -18693,7 +18690,7 @@
         <v>2178</v>
       </c>
       <c r="F588" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -18713,7 +18710,7 @@
         <v>2178</v>
       </c>
       <c r="F589" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -18733,7 +18730,7 @@
         <v>2178</v>
       </c>
       <c r="F590" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -18753,7 +18750,7 @@
         <v>2178</v>
       </c>
       <c r="F591" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -18773,7 +18770,7 @@
         <v>2178</v>
       </c>
       <c r="F592" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="593" spans="1:6">
@@ -18793,7 +18790,7 @@
         <v>2178</v>
       </c>
       <c r="F593" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="594" spans="1:6">
@@ -18813,7 +18810,7 @@
         <v>2178</v>
       </c>
       <c r="F594" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="595" spans="1:6">
@@ -18833,7 +18830,7 @@
         <v>2178</v>
       </c>
       <c r="F595" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="596" spans="1:6">
@@ -18853,7 +18850,7 @@
         <v>2178</v>
       </c>
       <c r="F596" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="597" spans="1:6">
@@ -18873,7 +18870,7 @@
         <v>2178</v>
       </c>
       <c r="F597" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="598" spans="1:6">
@@ -18893,7 +18890,7 @@
         <v>2178</v>
       </c>
       <c r="F598" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="599" spans="1:6">
@@ -18913,7 +18910,7 @@
         <v>2178</v>
       </c>
       <c r="F599" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="600" spans="1:6">
@@ -18933,7 +18930,7 @@
         <v>2178</v>
       </c>
       <c r="F600" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -18953,7 +18950,7 @@
         <v>2178</v>
       </c>
       <c r="F601" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="602" spans="1:6">
@@ -18973,7 +18970,7 @@
         <v>2178</v>
       </c>
       <c r="F602" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="603" spans="1:6">
@@ -18993,7 +18990,7 @@
         <v>2178</v>
       </c>
       <c r="F603" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -19013,7 +19010,7 @@
         <v>2178</v>
       </c>
       <c r="F604" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="605" spans="1:6">
@@ -19033,7 +19030,7 @@
         <v>2178</v>
       </c>
       <c r="F605" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="606" spans="1:6">
@@ -19053,7 +19050,7 @@
         <v>2178</v>
       </c>
       <c r="F606" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="607" spans="1:6">
@@ -19073,7 +19070,7 @@
         <v>2178</v>
       </c>
       <c r="F607" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -19093,7 +19090,7 @@
         <v>2178</v>
       </c>
       <c r="F608" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="609" spans="1:6">
@@ -19113,7 +19110,7 @@
         <v>2178</v>
       </c>
       <c r="F609" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="610" spans="1:6">
@@ -19133,7 +19130,7 @@
         <v>2178</v>
       </c>
       <c r="F610" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="611" spans="1:6">
@@ -19153,7 +19150,7 @@
         <v>2178</v>
       </c>
       <c r="F611" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -19173,7 +19170,7 @@
         <v>2178</v>
       </c>
       <c r="F612" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="613" spans="1:6">
@@ -19193,7 +19190,7 @@
         <v>2178</v>
       </c>
       <c r="F613" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -19213,7 +19210,7 @@
         <v>2178</v>
       </c>
       <c r="F614" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="615" spans="1:6">
@@ -19233,7 +19230,7 @@
         <v>2178</v>
       </c>
       <c r="F615" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -19253,7 +19250,7 @@
         <v>2178</v>
       </c>
       <c r="F616" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -19273,7 +19270,7 @@
         <v>2178</v>
       </c>
       <c r="F617" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="618" spans="1:6">
@@ -19293,7 +19290,7 @@
         <v>2178</v>
       </c>
       <c r="F618" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="619" spans="1:6">
@@ -19313,7 +19310,7 @@
         <v>2178</v>
       </c>
       <c r="F619" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="620" spans="1:6">
@@ -19333,7 +19330,7 @@
         <v>2178</v>
       </c>
       <c r="F620" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="621" spans="1:6">
@@ -19353,7 +19350,7 @@
         <v>2178</v>
       </c>
       <c r="F621" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="622" spans="1:6">
@@ -19373,7 +19370,7 @@
         <v>2178</v>
       </c>
       <c r="F622" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="623" spans="1:6">
@@ -19393,7 +19390,7 @@
         <v>2178</v>
       </c>
       <c r="F623" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="624" spans="1:6">
@@ -19413,7 +19410,7 @@
         <v>2178</v>
       </c>
       <c r="F624" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="625" spans="1:6">
@@ -19433,7 +19430,7 @@
         <v>2178</v>
       </c>
       <c r="F625" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="626" spans="1:6">
@@ -19453,7 +19450,7 @@
         <v>2178</v>
       </c>
       <c r="F626" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="627" spans="1:6">
@@ -19473,7 +19470,7 @@
         <v>2178</v>
       </c>
       <c r="F627" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="628" spans="1:6">
@@ -19493,7 +19490,7 @@
         <v>2178</v>
       </c>
       <c r="F628" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="629" spans="1:6">
@@ -19513,7 +19510,7 @@
         <v>2178</v>
       </c>
       <c r="F629" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="630" spans="1:6">
@@ -19533,7 +19530,7 @@
         <v>2178</v>
       </c>
       <c r="F630" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="631" spans="1:6">
@@ -19553,7 +19550,7 @@
         <v>2178</v>
       </c>
       <c r="F631" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="632" spans="1:6">
@@ -19573,7 +19570,7 @@
         <v>2178</v>
       </c>
       <c r="F632" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="633" spans="1:6">
@@ -19593,7 +19590,7 @@
         <v>2178</v>
       </c>
       <c r="F633" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="634" spans="1:6">
@@ -19613,7 +19610,7 @@
         <v>2178</v>
       </c>
       <c r="F634" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="635" spans="1:6">
@@ -19633,7 +19630,7 @@
         <v>2178</v>
       </c>
       <c r="F635" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="636" spans="1:6">
@@ -19653,7 +19650,7 @@
         <v>2178</v>
       </c>
       <c r="F636" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="637" spans="1:6">
@@ -19673,7 +19670,7 @@
         <v>2178</v>
       </c>
       <c r="F637" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="638" spans="1:6">
@@ -19693,7 +19690,7 @@
         <v>2178</v>
       </c>
       <c r="F638" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="639" spans="1:6">
@@ -19713,7 +19710,7 @@
         <v>2178</v>
       </c>
       <c r="F639" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="640" spans="1:6">
@@ -19733,7 +19730,7 @@
         <v>2178</v>
       </c>
       <c r="F640" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="641" spans="1:6">
@@ -19753,7 +19750,7 @@
         <v>2178</v>
       </c>
       <c r="F641" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="642" spans="1:6">
@@ -19773,7 +19770,7 @@
         <v>2178</v>
       </c>
       <c r="F642" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="643" spans="1:6">
@@ -19793,7 +19790,7 @@
         <v>2178</v>
       </c>
       <c r="F643" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="644" spans="1:6">
@@ -19813,7 +19810,7 @@
         <v>2178</v>
       </c>
       <c r="F644" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="645" spans="1:6">
@@ -19833,7 +19830,7 @@
         <v>2178</v>
       </c>
       <c r="F645" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="646" spans="1:6">
@@ -19853,7 +19850,7 @@
         <v>2178</v>
       </c>
       <c r="F646" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="647" spans="1:6">
@@ -19873,7 +19870,7 @@
         <v>2178</v>
       </c>
       <c r="F647" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="648" spans="1:6">
@@ -19893,7 +19890,7 @@
         <v>2178</v>
       </c>
       <c r="F648" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -19913,7 +19910,7 @@
         <v>2178</v>
       </c>
       <c r="F649" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="650" spans="1:6">
@@ -19933,7 +19930,7 @@
         <v>2178</v>
       </c>
       <c r="F650" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -19953,7 +19950,7 @@
         <v>2178</v>
       </c>
       <c r="F651" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="652" spans="1:6">
@@ -19973,7 +19970,7 @@
         <v>2178</v>
       </c>
       <c r="F652" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="653" spans="1:6">
@@ -19993,7 +19990,7 @@
         <v>2178</v>
       </c>
       <c r="F653" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="654" spans="1:6">
@@ -20013,7 +20010,7 @@
         <v>2178</v>
       </c>
       <c r="F654" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="655" spans="1:6">
@@ -20033,7 +20030,7 @@
         <v>2178</v>
       </c>
       <c r="F655" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="656" spans="1:6">
@@ -20053,7 +20050,7 @@
         <v>2178</v>
       </c>
       <c r="F656" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="657" spans="1:6">
@@ -20073,7 +20070,7 @@
         <v>2178</v>
       </c>
       <c r="F657" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="658" spans="1:6">
@@ -20093,7 +20090,7 @@
         <v>2178</v>
       </c>
       <c r="F658" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="659" spans="1:6">
@@ -20113,7 +20110,7 @@
         <v>2178</v>
       </c>
       <c r="F659" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="660" spans="1:6">
@@ -20133,7 +20130,7 @@
         <v>2178</v>
       </c>
       <c r="F660" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="661" spans="1:6">
@@ -20153,7 +20150,7 @@
         <v>2178</v>
       </c>
       <c r="F661" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="662" spans="1:6">
@@ -20173,7 +20170,7 @@
         <v>2178</v>
       </c>
       <c r="F662" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="663" spans="1:6">
@@ -20193,7 +20190,7 @@
         <v>2178</v>
       </c>
       <c r="F663" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="664" spans="1:6">
@@ -20213,7 +20210,7 @@
         <v>2178</v>
       </c>
       <c r="F664" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="665" spans="1:6">
@@ -20233,7 +20230,7 @@
         <v>2178</v>
       </c>
       <c r="F665" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="666" spans="1:6">
@@ -20253,7 +20250,7 @@
         <v>2178</v>
       </c>
       <c r="F666" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="667" spans="1:6">
@@ -20273,7 +20270,7 @@
         <v>2178</v>
       </c>
       <c r="F667" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="668" spans="1:6">
@@ -20293,7 +20290,7 @@
         <v>2178</v>
       </c>
       <c r="F668" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="669" spans="1:6">
@@ -20313,7 +20310,7 @@
         <v>2178</v>
       </c>
       <c r="F669" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="670" spans="1:6">
@@ -20333,7 +20330,7 @@
         <v>2178</v>
       </c>
       <c r="F670" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="671" spans="1:6">
@@ -20353,7 +20350,7 @@
         <v>2178</v>
       </c>
       <c r="F671" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="672" spans="1:6">
@@ -20373,7 +20370,7 @@
         <v>2178</v>
       </c>
       <c r="F672" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="673" spans="1:6">
@@ -20393,7 +20390,7 @@
         <v>2178</v>
       </c>
       <c r="F673" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="674" spans="1:6">
@@ -20413,7 +20410,7 @@
         <v>2178</v>
       </c>
       <c r="F674" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -20433,7 +20430,7 @@
         <v>2178</v>
       </c>
       <c r="F675" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="676" spans="1:6">
@@ -20453,7 +20450,7 @@
         <v>2178</v>
       </c>
       <c r="F676" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="677" spans="1:6">
@@ -20473,7 +20470,7 @@
         <v>2178</v>
       </c>
       <c r="F677" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -20493,7 +20490,7 @@
         <v>2178</v>
       </c>
       <c r="F678" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -20513,7 +20510,7 @@
         <v>2178</v>
       </c>
       <c r="F679" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -20533,7 +20530,7 @@
         <v>2178</v>
       </c>
       <c r="F680" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="681" spans="1:6">
@@ -20553,7 +20550,7 @@
         <v>2178</v>
       </c>
       <c r="F681" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="682" spans="1:6">
@@ -20573,7 +20570,7 @@
         <v>2178</v>
       </c>
       <c r="F682" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="683" spans="1:6">
@@ -20593,7 +20590,7 @@
         <v>2178</v>
       </c>
       <c r="F683" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="684" spans="1:6">
@@ -20613,7 +20610,7 @@
         <v>2178</v>
       </c>
       <c r="F684" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="685" spans="1:6">
@@ -20633,7 +20630,7 @@
         <v>2178</v>
       </c>
       <c r="F685" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="686" spans="1:6">
@@ -20653,7 +20650,7 @@
         <v>2178</v>
       </c>
       <c r="F686" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="687" spans="1:6">
@@ -20673,7 +20670,7 @@
         <v>2178</v>
       </c>
       <c r="F687" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="688" spans="1:6">
@@ -20693,7 +20690,7 @@
         <v>2178</v>
       </c>
       <c r="F688" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="689" spans="1:6">
@@ -20713,7 +20710,7 @@
         <v>2178</v>
       </c>
       <c r="F689" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="690" spans="1:6">
@@ -20733,7 +20730,7 @@
         <v>2178</v>
       </c>
       <c r="F690" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="691" spans="1:6">
@@ -20753,7 +20750,7 @@
         <v>2178</v>
       </c>
       <c r="F691" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="692" spans="1:6">
@@ -20773,7 +20770,7 @@
         <v>2178</v>
       </c>
       <c r="F692" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="693" spans="1:6">
@@ -20793,7 +20790,7 @@
         <v>2178</v>
       </c>
       <c r="F693" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="694" spans="1:6">
@@ -20813,7 +20810,7 @@
         <v>2178</v>
       </c>
       <c r="F694" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="695" spans="1:6">
@@ -20833,7 +20830,7 @@
         <v>2178</v>
       </c>
       <c r="F695" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="696" spans="1:6">
@@ -20853,7 +20850,7 @@
         <v>2178</v>
       </c>
       <c r="F696" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="697" spans="1:6">
@@ -20873,7 +20870,7 @@
         <v>2178</v>
       </c>
       <c r="F697" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="698" spans="1:6">
@@ -20893,7 +20890,7 @@
         <v>2178</v>
       </c>
       <c r="F698" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="699" spans="1:6">
@@ -20913,7 +20910,7 @@
         <v>2178</v>
       </c>
       <c r="F699" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="700" spans="1:6">
@@ -20933,7 +20930,7 @@
         <v>2178</v>
       </c>
       <c r="F700" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="701" spans="1:6">
@@ -20953,7 +20950,7 @@
         <v>2178</v>
       </c>
       <c r="F701" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="702" spans="1:6">
@@ -20973,7 +20970,7 @@
         <v>2178</v>
       </c>
       <c r="F702" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="703" spans="1:6">
@@ -20993,7 +20990,7 @@
         <v>2178</v>
       </c>
       <c r="F703" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="704" spans="1:6">
@@ -21013,7 +21010,7 @@
         <v>2178</v>
       </c>
       <c r="F704" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="705" spans="1:6">
@@ -21033,7 +21030,7 @@
         <v>2178</v>
       </c>
       <c r="F705" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="706" spans="1:6">
@@ -21053,7 +21050,7 @@
         <v>2178</v>
       </c>
       <c r="F706" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="707" spans="1:6">
@@ -21073,7 +21070,7 @@
         <v>2178</v>
       </c>
       <c r="F707" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="708" spans="1:6">
@@ -21093,7 +21090,7 @@
         <v>2178</v>
       </c>
       <c r="F708" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="709" spans="1:6">
@@ -21113,7 +21110,7 @@
         <v>2178</v>
       </c>
       <c r="F709" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="710" spans="1:6">
@@ -21133,7 +21130,7 @@
         <v>2178</v>
       </c>
       <c r="F710" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="711" spans="1:6">
@@ -21153,7 +21150,7 @@
         <v>2178</v>
       </c>
       <c r="F711" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="712" spans="1:6">
@@ -21173,7 +21170,7 @@
         <v>2178</v>
       </c>
       <c r="F712" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="713" spans="1:6">
@@ -21193,7 +21190,7 @@
         <v>2178</v>
       </c>
       <c r="F713" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -21213,7 +21210,7 @@
         <v>2178</v>
       </c>
       <c r="F714" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="715" spans="1:6">
@@ -21233,7 +21230,7 @@
         <v>2178</v>
       </c>
       <c r="F715" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="716" spans="1:6">
@@ -21253,7 +21250,7 @@
         <v>2178</v>
       </c>
       <c r="F716" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="717" spans="1:6">
@@ -21273,7 +21270,7 @@
         <v>2178</v>
       </c>
       <c r="F717" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="718" spans="1:6">
@@ -21293,7 +21290,7 @@
         <v>2178</v>
       </c>
       <c r="F718" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="719" spans="1:6">
@@ -21313,7 +21310,7 @@
         <v>2178</v>
       </c>
       <c r="F719" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="720" spans="1:6">
@@ -21333,7 +21330,7 @@
         <v>2178</v>
       </c>
       <c r="F720" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="721" spans="1:6">
@@ -21353,7 +21350,7 @@
         <v>2178</v>
       </c>
       <c r="F721" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="722" spans="1:6">
@@ -21373,7 +21370,7 @@
         <v>2178</v>
       </c>
       <c r="F722" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="723" spans="1:6">
@@ -21393,7 +21390,7 @@
         <v>2178</v>
       </c>
       <c r="F723" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="724" spans="1:6">
@@ -21413,7 +21410,7 @@
         <v>2178</v>
       </c>
       <c r="F724" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="725" spans="1:6">
@@ -21433,7 +21430,7 @@
         <v>2178</v>
       </c>
       <c r="F725" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
   </sheetData>
